--- a/API_Doc.xlsx
+++ b/API_Doc.xlsx
@@ -16,93 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
-  <si>
-    <t>Login User</t>
-  </si>
-  <si>
-    <t>[{"type":"PRODUCER/DISTRIBUTOR/CONSUMER","fullname":"Papan Das","email":"Email@id","cell":"121212121212"}]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
   <si>
     <t>POST</t>
   </si>
   <si>
-    <t>AgrichainInstance.PostAssets(harvers, comodity, acres, _yield, basic, Insurance, costs, parseInt(_yield), sellprice, { from: App.account, gas: 5000000 })</t>
-  </si>
-  <si>
-    <t>PostAssets</t>
-  </si>
-  <si>
-    <t>web3.eth.getBalance(App.account</t>
-  </si>
-  <si>
-    <t>GetBalance</t>
-  </si>
-  <si>
-    <t>AgrichainInstance.getAssetsIndex({ from: App.account });</t>
-  </si>
-  <si>
-    <t>AgrichainInstance.getQtyData(addr, assetId)</t>
-  </si>
-  <si>
-    <t>AgrichainInstance.ConsumerPurchase(addr, assetId, quantity, { from: App.account, value: price })</t>
-  </si>
-  <si>
-    <t>AgrichainInstance.getAllDistributors()</t>
-  </si>
-  <si>
-    <t>AgrichainInstance.quantitys(assetId)</t>
-  </si>
-  <si>
-    <t>AgrichainInstance.CreateOrder(producerAddr, assetId, quantity, grandTotla, { from: App.account })</t>
-  </si>
-  <si>
-    <t>AgrichainInstance.getAssetsIndex({ from: App.account })</t>
-  </si>
-  <si>
-    <t>AgrichainInstance.orders(orderid);</t>
-  </si>
-  <si>
-    <t>AgrichainInstance.DistributorPurchase(String(order[2]), order[0].toNumber(), { from: App.account, value: priceInWei });</t>
-  </si>
-  <si>
-    <t>AgrichainInstance.getAllProducers();</t>
-  </si>
-  <si>
-    <t>AgrichainInstance.getAssetsIndex({ from: producerAddr })</t>
-  </si>
-  <si>
-    <t>AgrichainInstance.assets(arr[idx].toNumber())</t>
-  </si>
-  <si>
-    <t>AgrichainInstance.quantitys(arr[idx].toNumber())</t>
-  </si>
-  <si>
-    <t>/test/getBalance</t>
-  </si>
-  <si>
-    <t>/test/createNewAccount</t>
-  </si>
-  <si>
     <t>{
     "result": "success",
     "txHash": "0xfc20e194899fc150066402d9cd02e416aa82a4a08229eabfd34efe32e86f4a40"
 }</t>
   </si>
   <si>
-    <t>/test/transferEth</t>
-  </si>
-  <si>
-    <t>{"from_account":"0xaE0ba611603Ec52104c9aB52deDA584806BBEc14", "privateKey":"0x687d850ccdb847b79610a2def6cdb132a0e61457f67b9c9d8b9bcf9d5b9e507b", "to_account":"0xf94698D41Dd032Ea392944c51E2dAc056F041314", "ethValue":"0.1"}</t>
-  </si>
-  <si>
     <t>{
     "result": "success",
     "txHash": "0x1507ff148b784759ed4b9766694d215ae4fff5c655da8f8d2649edfaa7726c46"
 }</t>
-  </si>
-  <si>
-    <t>/test/verifyContract</t>
   </si>
   <si>
     <t>{"contractAddress":"0xb8Ebea87fF6cB183Bea5c5C75a5923EeDb261d2e"}</t>
@@ -117,16 +45,10 @@
 }</t>
   </si>
   <si>
-    <t>/test/signup</t>
-  </si>
-  <si>
     <t>{
     "result": "success",
     "txHash": "0x077e558ee2bc1d683614e71372de85041a7db736b0d7ad2c5bfc5eac220cc489"
 }</t>
-  </si>
-  <si>
-    <t>{"from_account":"0xf94698D41Dd032Ea392944c51E2dAc056F041314", "privateKey":"0x57308d9fa174401f0275aa695b872835e1c03c6ca951793d9cd959be93b702ef", "email":"producer@producer.com", "fullname":"producer1", "cell":"456456456", "password":"password", "type":"PRODUCER"}</t>
   </si>
   <si>
     <t>METHOD</t>
@@ -163,9 +85,6 @@
 }</t>
   </si>
   <si>
-    <t>/test/signin</t>
-  </si>
-  <si>
     <t>GET</t>
   </si>
   <si>
@@ -177,13 +96,242 @@
   </si>
   <si>
     <t>{"from_account":"0xaE0ba611603Ec52104c9aB52deDA584806BBEc14"}</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>/api/getBalance</t>
+  </si>
+  <si>
+    <t>/api/createNewAccount</t>
+  </si>
+  <si>
+    <t>/api/transferEth</t>
+  </si>
+  <si>
+    <t>/api/verifyContract</t>
+  </si>
+  <si>
+    <t>/api/signup</t>
+  </si>
+  <si>
+    <t>/api/signin</t>
+  </si>
+  <si>
+    <t>/api/distributors</t>
+  </si>
+  <si>
+    <t>/api/producers</t>
+  </si>
+  <si>
+    <t>/api/consumers</t>
+  </si>
+  <si>
+    <t>/api/purchase/distributor</t>
+  </si>
+  <si>
+    <t>/api/purchase/consumer</t>
+  </si>
+  <si>
+    <t>/api/orders/update</t>
+  </si>
+  <si>
+    <t>/api/orders/new</t>
+  </si>
+  <si>
+    <t>/api/orders/all</t>
+  </si>
+  <si>
+    <t>/api/assets/new</t>
+  </si>
+  <si>
+    <t>/api/assets/all</t>
+  </si>
+  <si>
+    <t>Create new account on the Rinkeby Test Network</t>
+  </si>
+  <si>
+    <t>Trasfer Ether from one account to another account.</t>
+  </si>
+  <si>
+    <t>Check Ether balance on the Rinkeby Test Network</t>
+  </si>
+  <si>
+    <t>Get the list of all the Distributor inside the Contract</t>
+  </si>
+  <si>
+    <t>Get the list of all the Producers inside the Contract</t>
+  </si>
+  <si>
+    <t>Get the list of all the Consumbers inside the Contract</t>
+  </si>
+  <si>
+    <t>Create a new asset. Allowed only for Producer.</t>
+  </si>
+  <si>
+    <t>Get the list of all the orders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a new order. </t>
+  </si>
+  <si>
+    <t>Verify the contract account with the API Server. Our Contract Account Hash is 0xb8Ebea87fF6cB183Bea5c5C75a5923EeDb261d2e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register a user on the Network as Producer, Consumer or Distributor.
+Note*: Check if the account has sufficient Eth Balance before Sigin up.
+Note**: for "type", use 1 for PRODUCER, 2 for DISTRIBUTOR &amp; 3 for CONSUMER </t>
+  </si>
+  <si>
+    <t>{
+    "result": "success",
+    "producers": []
+}</t>
+  </si>
+  <si>
+    <t>{
+    "result": "success",
+    "distributors": []
+}</t>
+  </si>
+  <si>
+    <t>{
+    "result": "success",
+    "consumers": []
+}</t>
+  </si>
+  <si>
+    <t>{
+    "result": "success",
+    "assets": []}</t>
+  </si>
+  <si>
+    <t>{"from_account":"0x2D62771Cb1bbb9FC81289276014B76954a57B648"}</t>
+  </si>
+  <si>
+    <t>Get the list of all assets accocociated with Producers, Distributors or Consumers.</t>
+  </si>
+  <si>
+    <t>{
+    "result": "success",
+    "orders": []}</t>
+  </si>
+  <si>
+    <t>{
+    "result": "success",
+    "txHash": {
+        "blockHash": "0x6d3ece250eb80c566799d5203ffe068d9511f5efbaee560b3a03cfdb347ac6ae",
+        "blockNumber": 3361369,
+        "contractAddress": null,
+        "cumulativeGasUsed": 380323,
+        "from": "0x1f9c6bba334f5b231b9285fa812052257a20d914",
+        "gasUsed": 201209,
+        "logs": [],
+        "logsBloom": "0x00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000",
+        "status": true,
+        "to": "0xb8ebea87ff6cb183bea5c5c75a5923eedb261d2e",
+        "transactionHash": "0x65353a5f115c526d785cda8f1b447cc9034e7be96762e73ac1e5616e3d88aa99",
+        "transactionIndex": 3
+    }
+}</t>
+  </si>
+  <si>
+    <t>Update an Order:
+enum state { CREATED, IN_TRANSIT, RECEIVED, SELLING, SOLDOUT }
+enum replyState { NOACTION, ACCEPT, REJECT, PAYMENT }</t>
+  </si>
+  <si>
+    <t>{
+    "result": "success",
+    "txHash": {
+        "blockHash": "0x744357e57f289f66e8acd308d51dd25684976cd26f8433bf5c6b9d9fca5665fd",
+        "blockNumber": 3361438,
+        "contractAddress": null,
+        "cumulativeGasUsed": 142603,
+        "from": "0x2d62771cb1bbb9fc81289276014b76954a57b648",
+        "gasUsed": 55013,
+        "logs": [],
+        "logsBloom": "0x00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000",
+        "status": true,
+        "to": "0xb8ebea87ff6cb183bea5c5c75a5923eedb261d2e",
+        "transactionHash": "0x7b000d686b6e7a8d371c075a6114e4c004226cf1e596ba88ae9c17c63194d22a",
+        "transactionIndex": 2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{"from_account":"0x2D62771Cb1bbb9FC81289276014B76954a57B648", "privateKey":"0x5D0F394B455A8F8CB29CA2D77A34C6EF981D8CA4B8474FB6EBC4F201215CC3", "orderId":"10", "state":"1", "replyState":"1"}</t>
+  </si>
+  <si>
+    <t>{"from_account":"0x1f9C6bBa334f5b231B9285fa812052257A20D914", "privateKey":"0x6AE25E482F3EE103D5A8698CE847F876293CDDB2397D11FC357FE02E84C95", "to_address":"0x2D62771Cb1bbb9FC81289276014B76954a57B648", "assetId":"9", "quantity":"20", "price":"0.05"}</t>
+  </si>
+  <si>
+    <t>{"from_account":"0xC5CBc860F470a8eD44CC068eabd04B492a7cD370", "privateKey":"0x42e6939818e8ebadf72c4c6fe3dd81c371ec49b33873f089041df1896b82b", "harvest":"20181118", "commodity":"1", "acres":"100", "_yield":"50", "basic":"2", "Insurance":"0.03", "costs":"0.04", "sellprice":"0.005"}</t>
+  </si>
+  <si>
+    <t>{"from_account":"0xC5CBc860F470a8eD44CC068eabd04B492a7cD370", "privateKey":"0x42e6939818e8ebadf72c4c6fe3dd81c371ec49b33873f089041df1896b82b", "email":"producer@producer.com", "fullname":"producer1", "cell":"1111111111", "password":"password", "type":"1"}</t>
+  </si>
+  <si>
+    <t>{"from_account":"0xaE0ba611603Ec52104c9aB52deDA584806BBEc14", "privateKey":"0x687d850ccdb847b79610a2def6cdb132a0e61457f67b9c9d8b9bcf9d5b9e5", "to_account":"0xf94698D41Dd032Ea392944c51E2dAc056F041314", "ethValue":"0.1"}</t>
+  </si>
+  <si>
+    <t>{"from_account":"0x1f9C6bBa334f5b231B9285fa812052257A20D914", "privateKey":"0x6AE25E482F3EE103D5A8698CE847F876293CDDB2397D11FC357FE02E84C95", "to_address":"0x2D62771Cb1bbb9FC81289276014B76954a57B648", "orderId":"10"}</t>
+  </si>
+  <si>
+    <t>{
+    "result": "success",
+    "txHash": {
+        "blockHash": "0x310b806febeebdf260c8ffb9a20b5ecaf8281f38a7428d373924093da8c65885",
+        "blockNumber": 3361481,
+        "contractAddress": null,
+        "cumulativeGasUsed": 108551,
+        "from": "0x1f9c6bba334f5b231b9285fa812052257a20d914",
+        "gasUsed": 84118,
+        "logs": [],
+        "logsBloom": "0x00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000",
+        "status": true,
+        "to": "0xb8ebea87ff6cb183bea5c5c75a5923eedb261d2e",
+        "transactionHash": "0x8ab159c661957c32238f8e78e1bb4c33f1fddffbde92be335031d43b90bdf2eb",
+        "transactionIndex": 1
+    }
+}</t>
+  </si>
+  <si>
+    <t>After Producer accepts the order, Distributor can now make the payment in Eth.</t>
+  </si>
+  <si>
+    <t>Consumber can place an order and after distributor clears the order, customer can pay it.</t>
+  </si>
+  <si>
+    <t>from_account: Customer AccountHash
+privateKey: Customer Private Key
+to_address: Distributor AccountHash
+assetId: Assert Id
+quantity: Quantity to purchase</t>
+  </si>
+  <si>
+    <t>{"from_account":"0x1f9C6bBa334f5b231B9285fa812052257A20D914", "privateKey":"0x6AE25E482F3EE103D5A8698CE847F876293CDDB2397D11FC357FE02E84C95B40", "to_address":"0x2D62771Cb1bbb9FC81289276014B76954a57B648", "assetId":"10","quantity":"10"}</t>
+  </si>
+  <si>
+    <t>from_account: Distributor Account Hash
+privateKey: Distributor Private Key
+to_address: Producer Accoutn Hash
+orderId: Order Id</t>
+  </si>
+  <si>
+    <t>from_account:AccountHash
+privateKey: Account Private Key
+orderId: Order id
+state: Order State (check enum)
+replyState: Order Reply State (check enum)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,18 +340,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8.8000000000000007"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -215,15 +378,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -236,8 +399,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -530,211 +706,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="47.85546875" customWidth="1"/>
     <col min="5" max="5" width="49.85546875" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="31.7109375" customWidth="1"/>
     <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="48.75" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="67.5" customHeight="1">
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="59.25" customHeight="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="63" customHeight="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="69" customHeight="1">
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="63" customHeight="1">
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="B2" t="s">
+      <c r="G8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="59.25" customHeight="1">
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="68.25" customHeight="1">
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="60" customHeight="1">
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75">
-      <c r="A3" s="2"/>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75">
-      <c r="A6" s="1" t="s">
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="54" customHeight="1">
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="53.25" customHeight="1">
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="48.75" customHeight="1">
-      <c r="B20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="5" t="s">
+      <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" ht="60" customHeight="1">
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" ht="67.5" customHeight="1">
-      <c r="B21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" ht="75" customHeight="1">
-      <c r="B22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="F14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1" ht="56.25" customHeight="1">
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="51" customHeight="1">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" ht="59.25" customHeight="1">
-      <c r="B23" s="4" t="s">
+      <c r="C16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="58.5" customHeight="1">
+      <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="B24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="69" customHeight="1">
-      <c r="B25" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>37</v>
+      <c r="C17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
